--- a/classfiers/bottleneck/elm/smote/bottleneck_elm_tanh_smote_results.xlsx
+++ b/classfiers/bottleneck/elm/smote/bottleneck_elm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5059665871121718</v>
+        <v>0.4840425531914894</v>
       </c>
       <c r="C2" t="n">
-        <v>0.986046511627907</v>
+        <v>0.4292452830188679</v>
       </c>
       <c r="D2" t="n">
-        <v>0.668769716088328</v>
+        <v>0.455</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5005542273418822</v>
+        <v>0.4489235607160136</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5059382422802851</v>
+        <v>0.4886649874055415</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6719242902208201</v>
+        <v>0.6565143824027072</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5028690662493479</v>
+        <v>0.5382362905958086</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4786729857819905</v>
+        <v>0.4797843665768194</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9368421052631579</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6474358974358975</v>
+        <v>0.6345811051693405</v>
       </c>
       <c r="E4" t="n">
-        <v>0.556076404100587</v>
+        <v>0.5313352826510721</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5177304964539007</v>
+        <v>0.8363636363636363</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.2311557788944724</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6822429906542056</v>
+        <v>0.3622047244094488</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5230386052303861</v>
+        <v>0.6820940451047508</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01801801801801802</v>
+        <v>0.2171945701357466</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03508771929824561</v>
+        <v>0.3453237410071942</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5294104784396046</v>
+        <v>0.5746973217561453</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5349949956590029</v>
+        <v>0.6261921613390762</v>
       </c>
       <c r="C7" t="n">
-        <v>0.800812905929185</v>
+        <v>0.562887547462449</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5410921227394994</v>
+        <v>0.4907247905977381</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5223897562723616</v>
+        <v>0.5550573001647581</v>
       </c>
     </row>
   </sheetData>
